--- a/biology/Médecine/Alphonse_Herrgott/Alphonse_Herrgott.xlsx
+++ b/biology/Médecine/Alphonse_Herrgott/Alphonse_Herrgott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Alphonse Herrgott, né le 22 avril 1849 à Belfort et mort à 20 septembre 1927 à Paris, est un médecin, gynécologue et obstétricien français.
 </t>
@@ -511,10 +523,12 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après de brillantes études à la faculté de médecine de Strasbourg, où il est interne, il exerce dans divers hôpitaux alsaciens. Il termine son internat à la faculté de médecine de Nancy après que son père a rejoint Nancy. Il y soutient sa thèse en 1874, distinguée par le prix Jobert de l'Académie des sciences[réf. nécessaire]. Il devient professeur à la faculté et directeur de l'école départementale des accouchements. Il fonde en 1890 l'« Œuvre de la maternité » qui promeut l'allaitement maternel. Il occupe à plusieurs reprises le poste de président de la Société médicale de Nancy, et en 1912, celui de la Société obstétricale de France.
-Il est membre de l'Académie nationale de médecine[1]. Il est le fils de François Herrgott.
+Il est membre de l'Académie nationale de médecine. Il est le fils de François Herrgott.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Lettre sur l'enseignement obstétrical de Vienne », Annales de Gynécologie, octobre 1876, Texte intégral.
 Des maladies fœtales qui peuvent faire obstacle à l'accouchement, [Thèse présentée au concours pour l'agrégation. Section de chirurgie et d'accouchements], Paris, Octave Doin, 1878.
